--- a/player_d_dash/defense-dash-overall_SeasonType_Regular_20Season_Season_2017-18.xlsx
+++ b/player_d_dash/defense-dash-overall_SeasonType_Regular_20Season_Season_2017-18.xlsx
@@ -2274,32 +2274,32 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Taj Gibson</t>
+          <t>James Harden</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>71</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>71</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2309,7 +2309,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2319,17 +2319,17 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>46.9</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>46.8</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>-0.4</t>
+          <t>1.1</t>
         </is>
       </c>
     </row>
@@ -2339,32 +2339,32 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>James Harden</t>
+          <t>Taj Gibson</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>82</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>82</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2384,17 +2384,17 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>46.9</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>46.8</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>-0.4</t>
         </is>
       </c>
     </row>
@@ -2469,17 +2469,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Thaddeus Young</t>
+          <t>Tobias Harris</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2489,12 +2489,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>80</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2514,17 +2514,17 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>-0.2</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -2534,17 +2534,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Tobias Harris</t>
+          <t>Thaddeus Young</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2554,12 +2554,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>81</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>81</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2579,17 +2579,17 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>-0.2</t>
         </is>
       </c>
     </row>
@@ -2924,32 +2924,32 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Jeremy Lin</t>
+          <t>Paul George</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>78</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>78</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2959,7 +2959,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2969,17 +2969,17 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>76.9</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>30.3</t>
+          <t>3.0</t>
         </is>
       </c>
     </row>
@@ -2989,32 +2989,32 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Paul George</t>
+          <t>Jeremy Lin</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -3024,7 +3024,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3034,17 +3034,17 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>76.9</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>30.3</t>
         </is>
       </c>
     </row>
@@ -3509,32 +3509,32 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Danilo Gallinari</t>
+          <t>Dirk Nowitzki</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>77</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>77</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3554,17 +3554,17 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>46.9</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>-1.4</t>
+          <t>-0.7</t>
         </is>
       </c>
     </row>
@@ -3574,32 +3574,32 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Dirk Nowitzki</t>
+          <t>Danilo Gallinari</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -3609,7 +3609,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3619,17 +3619,17 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>46.9</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>47.7</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>-0.7</t>
+          <t>-1.4</t>
         </is>
       </c>
     </row>
@@ -4094,32 +4094,32 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Khris Middleton</t>
+          <t>Willie Cauley-Stein</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>73</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>73</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -4129,7 +4129,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -4139,17 +4139,17 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>-2.5</t>
         </is>
       </c>
     </row>
@@ -4159,32 +4159,32 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Willie Cauley-Stein</t>
+          <t>Khris Middleton</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>81</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>81</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -4194,7 +4194,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -4204,17 +4204,17 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>-2.5</t>
+          <t>1.9</t>
         </is>
       </c>
     </row>
@@ -4939,17 +4939,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Devin Booker</t>
+          <t>CJ McCollum</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4959,12 +4959,12 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>80</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -4974,7 +4974,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>43.9</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -4994,7 +4994,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-1.0</t>
         </is>
       </c>
     </row>
@@ -5004,17 +5004,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>CJ McCollum</t>
+          <t>Devin Booker</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -5024,12 +5024,12 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>54</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -5039,7 +5039,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>43.9</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -5059,7 +5059,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>3.4</t>
         </is>
       </c>
     </row>
@@ -6369,32 +6369,32 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Patrick Beverley</t>
+          <t>DeMarre Carroll</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>71</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>71</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -6414,17 +6414,17 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>-1.4</t>
         </is>
       </c>
     </row>
@@ -6434,32 +6434,32 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>DeMarre Carroll</t>
+          <t>Patrick Beverley</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -6479,17 +6479,17 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>-1.4</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -7409,32 +7409,32 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Bojan Bogdanovic</t>
+          <t>Dennis Smith Jr.</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>69</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>69</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -7444,7 +7444,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -7454,17 +7454,17 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>2.5</t>
         </is>
       </c>
     </row>
@@ -7474,32 +7474,32 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Dennis Smith Jr.</t>
+          <t>Bojan Bogdanovic</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>80</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -7509,7 +7509,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -7519,17 +7519,17 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>47.7</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3.4</t>
         </is>
       </c>
     </row>
@@ -8319,32 +8319,32 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>P.J. Tucker</t>
+          <t>Mike Muscala</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>53</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -8354,7 +8354,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -8364,17 +8364,17 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>48.7</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>-1.5</t>
         </is>
       </c>
     </row>
@@ -8384,32 +8384,32 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Mike Muscala</t>
+          <t>P.J. Tucker</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>81</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>81</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -8419,7 +8419,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -8429,17 +8429,17 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>48.7</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>-1.5</t>
+          <t>2.7</t>
         </is>
       </c>
     </row>
@@ -8709,32 +8709,32 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>James Johnson</t>
+          <t>Mike Conley</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -8744,7 +8744,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -8754,17 +8754,17 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>42.8</t>
+          <t>41.0</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>44.9</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>-3.8</t>
+          <t>-3.9</t>
         </is>
       </c>
     </row>
@@ -8774,32 +8774,32 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Mike Conley</t>
+          <t>James Johnson</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>71</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>71</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -8809,7 +8809,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -8819,17 +8819,17 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>41.0</t>
+          <t>42.8</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>44.9</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>-3.9</t>
+          <t>-3.8</t>
         </is>
       </c>
     </row>
@@ -10074,32 +10074,32 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Wesley Matthews</t>
+          <t>Thon Maker</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>71</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>71</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -10109,7 +10109,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -10119,17 +10119,17 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>48.4</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>1.7</t>
         </is>
       </c>
     </row>
@@ -10139,32 +10139,32 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Thon Maker</t>
+          <t>Wesley Matthews</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>63</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>63</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -10174,7 +10174,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -10184,17 +10184,17 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>48.4</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>2.1</t>
         </is>
       </c>
     </row>
@@ -10269,17 +10269,17 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Trevor Ariza</t>
+          <t>E'Twaun Moore</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -10289,12 +10289,12 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>82</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>82</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -10304,7 +10304,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -10314,17 +10314,17 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>1.3</t>
         </is>
       </c>
     </row>
@@ -10334,17 +10334,17 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>E'Twaun Moore</t>
+          <t>Trevor Ariza</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -10354,12 +10354,12 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>65</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -10369,7 +10369,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -10379,17 +10379,17 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>49.9</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>3.9</t>
         </is>
       </c>
     </row>
@@ -10724,32 +10724,32 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Skal Labissiere</t>
+          <t>Evan Turner</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>79</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>79</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -10759,7 +10759,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -10769,17 +10769,17 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>46.9</t>
+          <t>44.5</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>-0.9</t>
         </is>
       </c>
     </row>
@@ -10789,32 +10789,32 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Evan Turner</t>
+          <t>Luc Mbah a Moute</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -10824,7 +10824,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -10834,17 +10834,17 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>44.5</t>
+          <t>43.1</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>-0.9</t>
+          <t>-2.9</t>
         </is>
       </c>
     </row>
@@ -10854,32 +10854,32 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Luc Mbah a Moute</t>
+          <t>Skal Labissiere</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>59</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>59</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -10889,7 +10889,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -10899,17 +10899,17 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>43.1</t>
+          <t>46.9</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>-2.9</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -11049,32 +11049,32 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Kent Bazemore</t>
+          <t>Jabari Parker</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>31</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -11084,7 +11084,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -11094,17 +11094,17 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>48.9</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>1.4</t>
         </is>
       </c>
     </row>
@@ -11114,32 +11114,32 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Jabari Parker</t>
+          <t>Kent Bazemore</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>64</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>64</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -11149,7 +11149,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -11159,17 +11159,17 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>3.6</t>
         </is>
       </c>
     </row>
@@ -11309,32 +11309,32 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Jonathon Simmons</t>
+          <t>Ed Davis</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>78</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>78</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -11344,7 +11344,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -11354,17 +11354,17 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>48.4</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>-1.2</t>
         </is>
       </c>
     </row>
@@ -11374,32 +11374,32 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Courtney Lee</t>
+          <t>Jonathon Simmons</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>68</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>68</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -11409,7 +11409,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -11419,17 +11419,17 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>47.6</t>
+          <t>48.4</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>3.2</t>
         </is>
       </c>
     </row>
@@ -11439,32 +11439,32 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Ed Davis</t>
+          <t>Courtney Lee</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>75</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>75</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -11474,7 +11474,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -11484,17 +11484,17 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>47.6</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>-1.2</t>
+          <t>2.1</t>
         </is>
       </c>
     </row>
@@ -11504,17 +11504,17 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>D'Angelo Russell</t>
+          <t>Marcus Smart</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -11524,12 +11524,12 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>51</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -11539,7 +11539,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -11549,17 +11549,17 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>-1.0</t>
         </is>
       </c>
     </row>
@@ -11569,17 +11569,17 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Marcus Smart</t>
+          <t>D'Angelo Russell</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -11589,12 +11589,12 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>48</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -11604,27 +11604,27 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>49.7</t>
+        </is>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>45.5</t>
+        </is>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
           <t>4.1</t>
-        </is>
-      </c>
-      <c r="J173" t="inlineStr">
-        <is>
-          <t>9.3</t>
-        </is>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>44.2</t>
-        </is>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>45.2</t>
-        </is>
-      </c>
-      <c r="M173" t="inlineStr">
-        <is>
-          <t>-1.0</t>
         </is>
       </c>
     </row>
@@ -11959,17 +11959,17 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Goran Dragic</t>
+          <t>Darren Collison</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -11979,12 +11979,12 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>69</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>69</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -11994,7 +11994,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -12004,7 +12004,7 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>41.9</t>
+          <t>47.6</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
@@ -12014,7 +12014,7 @@
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>-3.2</t>
+          <t>2.7</t>
         </is>
       </c>
     </row>
@@ -12089,17 +12089,17 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Darren Collison</t>
+          <t>Goran Dragic</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -12109,12 +12109,12 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>74</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -12124,7 +12124,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -12134,7 +12134,7 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>47.6</t>
+          <t>41.9</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
@@ -12144,7 +12144,7 @@
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>-3.2</t>
         </is>
       </c>
     </row>
@@ -12609,32 +12609,32 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Xavier Rathan-Mayes</t>
+          <t>Luol Deng</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -12644,7 +12644,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -12654,17 +12654,17 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>57.8</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>44.6</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>13.2</t>
+          <t>-10.9</t>
         </is>
       </c>
     </row>
@@ -12674,32 +12674,32 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Luol Deng</t>
+          <t>Xavier Rathan-Mayes</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -12709,7 +12709,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -12719,17 +12719,17 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>57.8</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>-10.9</t>
+          <t>13.2</t>
         </is>
       </c>
     </row>
@@ -12739,17 +12739,17 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Jarell Martin</t>
+          <t>Kelly Oubre Jr.</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -12759,12 +12759,12 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>81</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>81</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -12774,7 +12774,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -12784,17 +12784,17 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>44.5</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>-1.4</t>
+          <t>3.8</t>
         </is>
       </c>
     </row>
@@ -12804,17 +12804,17 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Kelly Oubre Jr.</t>
+          <t>Jarell Martin</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -12824,12 +12824,12 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>72</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>72</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -12839,7 +12839,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -12849,17 +12849,17 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>48.9</t>
+          <t>44.5</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>-1.4</t>
         </is>
       </c>
     </row>
@@ -13129,7 +13129,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Allen Crabbe</t>
+          <t>Quincy Acy</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -13139,22 +13139,22 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>67</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>67</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -13164,7 +13164,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -13174,17 +13174,17 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>46.8</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>-3.2</t>
+          <t>-0.2</t>
         </is>
       </c>
     </row>
@@ -13194,7 +13194,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Quincy Acy</t>
+          <t>Allen Crabbe</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -13204,22 +13204,22 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>73</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>73</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -13229,7 +13229,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -13239,17 +13239,17 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>46.8</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>-0.2</t>
+          <t>-3.2</t>
         </is>
       </c>
     </row>
@@ -15144,32 +15144,32 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Jayson Tatum</t>
+          <t>Jerryd Bayless</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>38</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>38</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -15189,17 +15189,17 @@
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>43.4</t>
+          <t>43.6</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>-1.5</t>
         </is>
       </c>
     </row>
@@ -15209,32 +15209,32 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Jerryd Bayless</t>
+          <t>Jayson Tatum</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>77</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>77</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -15254,17 +15254,17 @@
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>43.6</t>
+          <t>43.4</t>
         </is>
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>-1.5</t>
+          <t>-2.0</t>
         </is>
       </c>
     </row>
@@ -16054,17 +16054,17 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Bobby Portis</t>
+          <t>Rudy Gay</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -16074,12 +16074,12 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>57</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
@@ -16089,7 +16089,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -16099,17 +16099,17 @@
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>49.2</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>-0.4</t>
         </is>
       </c>
     </row>
@@ -16119,17 +16119,17 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Rudy Gay</t>
+          <t>Bobby Portis</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -16139,12 +16139,12 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>73</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>73</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
@@ -16154,7 +16154,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -16164,17 +16164,17 @@
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>49.2</t>
         </is>
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>-0.4</t>
+          <t>2.1</t>
         </is>
       </c>
     </row>
@@ -16639,32 +16639,32 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Kyle Anderson</t>
+          <t>J.J. Barea</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>69</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>69</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
@@ -16674,7 +16674,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -16684,17 +16684,17 @@
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="M251" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>6.4</t>
         </is>
       </c>
     </row>
@@ -16704,32 +16704,32 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>J.J. Barea</t>
+          <t>Kyle Anderson</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>74</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
@@ -16739,7 +16739,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -16749,17 +16749,17 @@
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="M252" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -17094,32 +17094,32 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Khem Birch</t>
+          <t>David West</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>73</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>73</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
@@ -17129,7 +17129,7 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -17139,17 +17139,17 @@
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>-1.1</t>
+          <t>-4.7</t>
         </is>
       </c>
     </row>
@@ -17159,32 +17159,32 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>David West</t>
+          <t>Khem Birch</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
           <t>37</t>
         </is>
       </c>
-      <c r="E259" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>37</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
@@ -17194,7 +17194,7 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -17204,17 +17204,17 @@
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="M259" t="inlineStr">
         <is>
-          <t>-4.7</t>
+          <t>-1.1</t>
         </is>
       </c>
     </row>
@@ -17549,32 +17549,32 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Dwyane Wade</t>
+          <t>Dorian Finney-Smith</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
@@ -17584,7 +17584,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -17594,17 +17594,17 @@
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>42.4</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>44.9</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="M265" t="inlineStr">
         <is>
-          <t>-2.5</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -17614,32 +17614,32 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Dorian Finney-Smith</t>
+          <t>Dwyane Wade</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>67</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>67</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
@@ -17649,7 +17649,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -17659,17 +17659,17 @@
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>42.4</t>
         </is>
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>44.9</t>
         </is>
       </c>
       <c r="M266" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>-2.5</t>
         </is>
       </c>
     </row>
@@ -17939,32 +17939,32 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Nene</t>
+          <t>Trevor Booker</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>67</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>67</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
@@ -17974,7 +17974,7 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -17984,17 +17984,17 @@
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>42.8</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="M271" t="inlineStr">
         <is>
-          <t>-3.3</t>
+          <t>-0.5</t>
         </is>
       </c>
     </row>
@@ -18004,32 +18004,32 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Trevor Booker</t>
+          <t>Nene</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>52</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
@@ -18039,7 +18039,7 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -18049,17 +18049,17 @@
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>42.8</t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>-0.5</t>
+          <t>-3.3</t>
         </is>
       </c>
     </row>
@@ -18264,32 +18264,32 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Gerald Green</t>
+          <t>Zach Collins</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>64</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>64</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
@@ -18299,7 +18299,7 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -18309,17 +18309,17 @@
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>43.2</t>
         </is>
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>44.5</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>-2.3</t>
         </is>
       </c>
     </row>
@@ -18329,32 +18329,32 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Zach Collins</t>
+          <t>Gerald Green</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
@@ -18364,7 +18364,7 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -18374,17 +18374,17 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>43.2</t>
+          <t>48.1</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>44.5</t>
         </is>
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>-2.3</t>
+          <t>3.6</t>
         </is>
       </c>
     </row>
@@ -18979,17 +18979,17 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Maurice Harkless</t>
+          <t>Noah Vonleh</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -18999,12 +18999,12 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>53</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
@@ -19014,7 +19014,7 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -19024,17 +19024,17 @@
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="M287" t="inlineStr">
         <is>
-          <t>-2.2</t>
+          <t>-0.6</t>
         </is>
       </c>
     </row>
@@ -19044,17 +19044,17 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Noah Vonleh</t>
+          <t>Maurice Harkless</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -19064,12 +19064,12 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>58</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>58</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
@@ -19079,7 +19079,7 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -19089,17 +19089,17 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="M288" t="inlineStr">
         <is>
-          <t>-0.6</t>
+          <t>-2.2</t>
         </is>
       </c>
     </row>
@@ -19434,32 +19434,32 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Paul Zipser</t>
+          <t>Troy Daniels</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>77</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>77</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
@@ -19469,7 +19469,7 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -19479,17 +19479,17 @@
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="M294" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>5.3</t>
         </is>
       </c>
     </row>
@@ -19499,32 +19499,32 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Troy Daniels</t>
+          <t>Paul Zipser</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>51</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
@@ -19534,7 +19534,7 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -19544,17 +19544,17 @@
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="M295" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
@@ -19694,17 +19694,17 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Jameer Nelson</t>
+          <t>Delon Wright</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -19714,12 +19714,12 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>69</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>69</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
@@ -19729,7 +19729,7 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -19739,17 +19739,17 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>40.5</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="M298" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>-3.8</t>
         </is>
       </c>
     </row>
@@ -19759,17 +19759,17 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Delon Wright</t>
+          <t>Jameer Nelson</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
@@ -19779,12 +19779,12 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
@@ -19794,7 +19794,7 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -19804,17 +19804,17 @@
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>40.5</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="M299" t="inlineStr">
         <is>
-          <t>-3.8</t>
+          <t>-2.0</t>
         </is>
       </c>
     </row>
@@ -19889,12 +19889,12 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Omer Asik</t>
+          <t>Timofey Mozgov</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -19909,12 +19909,12 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>29</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>29</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
@@ -19924,7 +19924,7 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -19934,17 +19934,17 @@
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>46.8</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="M301" t="inlineStr">
         <is>
-          <t>-1.4</t>
+          <t>-2.9</t>
         </is>
       </c>
     </row>
@@ -19954,12 +19954,12 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Timofey Mozgov</t>
+          <t>Omer Asik</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -19974,12 +19974,12 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>17</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
@@ -19989,7 +19989,7 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -19999,17 +19999,17 @@
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>47.7</t>
+          <t>46.8</t>
         </is>
       </c>
       <c r="M302" t="inlineStr">
         <is>
-          <t>-2.9</t>
+          <t>-1.4</t>
         </is>
       </c>
     </row>
@@ -21319,32 +21319,32 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Jamel Artis</t>
+          <t>Travis Wear</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="H323" t="inlineStr">
@@ -21354,7 +21354,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -21364,17 +21364,17 @@
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>40.4</t>
         </is>
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="M323" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>-5.5</t>
         </is>
       </c>
     </row>
@@ -21384,32 +21384,32 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Jack Cooley</t>
+          <t>Jamel Artis</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
@@ -21419,7 +21419,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -21429,17 +21429,17 @@
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>43.6</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="M324" t="inlineStr">
         <is>
-          <t>-3.1</t>
+          <t>2.7</t>
         </is>
       </c>
     </row>
@@ -21449,12 +21449,12 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Travis Wear</t>
+          <t>Jack Cooley</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -21464,17 +21464,17 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
@@ -21484,7 +21484,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -21494,17 +21494,17 @@
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>40.4</t>
+          <t>43.6</t>
         </is>
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="M325" t="inlineStr">
         <is>
-          <t>-5.5</t>
+          <t>-3.1</t>
         </is>
       </c>
     </row>
@@ -22814,32 +22814,32 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Boban Marjanovic</t>
+          <t>Dante Exum</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H346" t="inlineStr">
@@ -22849,7 +22849,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -22859,17 +22859,17 @@
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>38.1</t>
         </is>
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="M346" t="inlineStr">
         <is>
-          <t>-4.6</t>
+          <t>-5.4</t>
         </is>
       </c>
     </row>
@@ -22879,7 +22879,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Aaron Jackson</t>
+          <t>Chinanu Onuaku</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -22889,12 +22889,12 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
@@ -22914,7 +22914,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -22924,17 +22924,17 @@
       </c>
       <c r="K347" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="M347" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>5.2</t>
         </is>
       </c>
     </row>
@@ -22944,17 +22944,17 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Devin Harris</t>
+          <t>Jaylen Morris</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
@@ -22964,12 +22964,12 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H348" t="inlineStr">
@@ -22979,7 +22979,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -22989,17 +22989,17 @@
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>46.9</t>
+          <t>55.6</t>
         </is>
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="M348" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>9.6</t>
         </is>
       </c>
     </row>
@@ -23009,17 +23009,17 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Dante Exum</t>
+          <t>Aaron Jackson</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
@@ -23029,12 +23029,12 @@
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H349" t="inlineStr">
@@ -23044,7 +23044,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -23054,17 +23054,17 @@
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>38.1</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>48.6</t>
         </is>
       </c>
       <c r="M349" t="inlineStr">
         <is>
-          <t>-5.4</t>
+          <t>18.0</t>
         </is>
       </c>
     </row>
@@ -23074,32 +23074,32 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Chinanu Onuaku</t>
+          <t>Devin Harris</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>71</t>
         </is>
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>71</t>
         </is>
       </c>
       <c r="H350" t="inlineStr">
@@ -23109,7 +23109,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -23119,7 +23119,7 @@
       </c>
       <c r="K350" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>46.9</t>
         </is>
       </c>
       <c r="L350" t="inlineStr">
@@ -23129,7 +23129,7 @@
       </c>
       <c r="M350" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>2.2</t>
         </is>
       </c>
     </row>
@@ -23139,32 +23139,32 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Jaylen Morris</t>
+          <t>Boban Marjanovic</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>36</t>
         </is>
       </c>
       <c r="H351" t="inlineStr">
@@ -23174,7 +23174,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -23184,17 +23184,17 @@
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t>55.6</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="M351" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>-4.6</t>
         </is>
       </c>
     </row>
@@ -23269,32 +23269,32 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>JaVale McGee</t>
+          <t>Jordan Mickey</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H353" t="inlineStr">
@@ -23304,7 +23304,7 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -23314,17 +23314,17 @@
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>44.6</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>48.4</t>
         </is>
       </c>
       <c r="M353" t="inlineStr">
         <is>
-          <t>-2.4</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -23334,17 +23334,17 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Myke Henry</t>
+          <t>Juancho Hernangomez</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
@@ -23354,12 +23354,12 @@
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H354" t="inlineStr">
@@ -23369,7 +23369,7 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -23379,17 +23379,17 @@
       </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="M354" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-1.7</t>
         </is>
       </c>
     </row>
@@ -23399,17 +23399,17 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Juancho Hernangomez</t>
+          <t>Myke Henry</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
@@ -23419,12 +23419,12 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H355" t="inlineStr">
@@ -23434,7 +23434,7 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -23444,17 +23444,17 @@
       </c>
       <c r="K355" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="M355" t="inlineStr">
         <is>
-          <t>-1.7</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -23464,32 +23464,32 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Jordan Mickey</t>
+          <t>JaVale McGee</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>64</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>64</t>
         </is>
       </c>
       <c r="H356" t="inlineStr">
@@ -23499,7 +23499,7 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -23509,17 +23509,17 @@
       </c>
       <c r="K356" t="inlineStr">
         <is>
-          <t>48.9</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>48.4</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="M356" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>-2.4</t>
         </is>
       </c>
     </row>
@@ -23529,32 +23529,32 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Jonas Jerebko</t>
+          <t>Michael Carter-Williams</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>52</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H357" t="inlineStr">
@@ -23564,7 +23564,7 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -23574,17 +23574,17 @@
       </c>
       <c r="K357" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="M357" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.4</t>
         </is>
       </c>
     </row>
@@ -23594,32 +23594,32 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Michael Carter-Williams</t>
+          <t>Jonas Jerebko</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>71</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>71</t>
         </is>
       </c>
       <c r="H358" t="inlineStr">
@@ -23629,7 +23629,7 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -23639,17 +23639,17 @@
       </c>
       <c r="K358" t="inlineStr">
         <is>
+          <t>48.1</t>
+        </is>
+      </c>
+      <c r="L358" t="inlineStr">
+        <is>
           <t>46.4</t>
         </is>
       </c>
-      <c r="L358" t="inlineStr">
-        <is>
-          <t>45.1</t>
-        </is>
-      </c>
       <c r="M358" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>1.7</t>
         </is>
       </c>
     </row>
@@ -24049,17 +24049,17 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Isaiah Taylor</t>
+          <t>Kyle Collinsworth</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
@@ -24069,12 +24069,12 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>29</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>29</t>
         </is>
       </c>
       <c r="H365" t="inlineStr">
@@ -24084,7 +24084,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -24094,17 +24094,17 @@
       </c>
       <c r="K365" t="inlineStr">
         <is>
-          <t>43.7</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>43.6</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="M365" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>4.8</t>
         </is>
       </c>
     </row>
@@ -24114,17 +24114,17 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Kyle Collinsworth</t>
+          <t>Isaiah Taylor</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
@@ -24134,12 +24134,12 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>64</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>64</t>
         </is>
       </c>
       <c r="H366" t="inlineStr">
@@ -24149,7 +24149,7 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -24159,17 +24159,17 @@
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>43.7</t>
         </is>
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>43.6</t>
         </is>
       </c>
       <c r="M366" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -24244,32 +24244,32 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Vince Carter</t>
+          <t>Lance Thomas</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>68</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>68</t>
         </is>
       </c>
       <c r="H368" t="inlineStr">
@@ -24279,7 +24279,7 @@
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -24289,17 +24289,17 @@
       </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t>47.7</t>
+          <t>38.5</t>
         </is>
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="M368" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>-8.0</t>
         </is>
       </c>
     </row>
@@ -24309,32 +24309,32 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Lance Thomas</t>
+          <t>Vince Carter</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>41</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>57</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H369" t="inlineStr">
@@ -24344,7 +24344,7 @@
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -24354,17 +24354,17 @@
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>38.5</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="M369" t="inlineStr">
         <is>
-          <t>-8.0</t>
+          <t>2.3</t>
         </is>
       </c>
     </row>
@@ -24959,17 +24959,17 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Frank Mason III</t>
+          <t>Lance Stephenson</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
@@ -24979,12 +24979,12 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>81</t>
         </is>
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>81</t>
         </is>
       </c>
       <c r="H379" t="inlineStr">
@@ -24994,7 +24994,7 @@
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
@@ -25004,17 +25004,17 @@
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>44.5</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="M379" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>1.7</t>
         </is>
       </c>
     </row>
@@ -25024,17 +25024,17 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Lance Stephenson</t>
+          <t>Frank Mason III</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
@@ -25044,12 +25044,12 @@
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G380" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H380" t="inlineStr">
@@ -25059,7 +25059,7 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
@@ -25069,17 +25069,17 @@
       </c>
       <c r="K380" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>44.5</t>
         </is>
       </c>
       <c r="M380" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
@@ -26324,22 +26324,22 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Alec Peters</t>
+          <t>Josh Magette</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F400" t="inlineStr">
@@ -26359,7 +26359,7 @@
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
@@ -26369,17 +26369,17 @@
       </c>
       <c r="K400" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>40.2</t>
         </is>
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>43.9</t>
+          <t>42.4</t>
         </is>
       </c>
       <c r="M400" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>-2.2</t>
         </is>
       </c>
     </row>
@@ -26389,32 +26389,32 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Josh Magette</t>
+          <t>Omri Casspi</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>52</t>
         </is>
       </c>
       <c r="G401" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H401" t="inlineStr">
@@ -26434,17 +26434,17 @@
       </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>40.2</t>
+          <t>40.1</t>
         </is>
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>42.4</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="M401" t="inlineStr">
         <is>
-          <t>-2.2</t>
+          <t>-4.6</t>
         </is>
       </c>
     </row>
@@ -26454,17 +26454,17 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Omri Casspi</t>
+          <t>Alec Peters</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
@@ -26474,12 +26474,12 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>16</t>
         </is>
       </c>
       <c r="G402" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>16</t>
         </is>
       </c>
       <c r="H402" t="inlineStr">
@@ -26489,7 +26489,7 @@
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
@@ -26499,17 +26499,17 @@
       </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>40.1</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>43.9</t>
         </is>
       </c>
       <c r="M402" t="inlineStr">
         <is>
-          <t>-4.6</t>
+          <t>1.3</t>
         </is>
       </c>
     </row>
@@ -27104,12 +27104,12 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Alan Williams</t>
+          <t>Marshall Plumlee</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
@@ -27119,17 +27119,17 @@
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G412" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H412" t="inlineStr">
@@ -27139,7 +27139,7 @@
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -27149,17 +27149,17 @@
       </c>
       <c r="K412" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>43.3</t>
         </is>
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>50.7</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="M412" t="inlineStr">
         <is>
-          <t>-10.7</t>
+          <t>-6.8</t>
         </is>
       </c>
     </row>
@@ -27169,32 +27169,32 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Marshall Plumlee</t>
+          <t>Isaiah Whitehead</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G413" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="H413" t="inlineStr">
@@ -27204,7 +27204,7 @@
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -27214,17 +27214,17 @@
       </c>
       <c r="K413" t="inlineStr">
         <is>
-          <t>43.3</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="M413" t="inlineStr">
         <is>
-          <t>-6.8</t>
+          <t>1.1</t>
         </is>
       </c>
     </row>
@@ -27234,32 +27234,32 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Isaiah Whitehead</t>
+          <t>Alan Williams</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G414" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H414" t="inlineStr">
@@ -27269,7 +27269,7 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -27279,17 +27279,17 @@
       </c>
       <c r="K414" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>50.7</t>
         </is>
       </c>
       <c r="M414" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>-10.7</t>
         </is>
       </c>
     </row>
@@ -27819,17 +27819,17 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Ron Baker</t>
+          <t>Rodney Purvis</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
@@ -27839,12 +27839,12 @@
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>16</t>
         </is>
       </c>
       <c r="G423" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>16</t>
         </is>
       </c>
       <c r="H423" t="inlineStr">
@@ -27854,7 +27854,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -27864,17 +27864,17 @@
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>36.0</t>
         </is>
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="M423" t="inlineStr">
         <is>
-          <t>-0.6</t>
+          <t>-7.5</t>
         </is>
       </c>
     </row>
@@ -27884,17 +27884,17 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Rodney Purvis</t>
+          <t>Ron Baker</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
@@ -27904,12 +27904,12 @@
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>26</t>
         </is>
       </c>
       <c r="G424" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>26</t>
         </is>
       </c>
       <c r="H424" t="inlineStr">
@@ -27919,7 +27919,7 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -27929,17 +27929,17 @@
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="M424" t="inlineStr">
         <is>
-          <t>-7.5</t>
+          <t>-0.6</t>
         </is>
       </c>
     </row>
@@ -28469,22 +28469,22 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>James Michael McAdoo</t>
+          <t>Monte Morris</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F433" t="inlineStr">
@@ -28504,7 +28504,7 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -28514,17 +28514,17 @@
       </c>
       <c r="K433" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="M433" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>-9.6</t>
         </is>
       </c>
     </row>
@@ -28534,22 +28534,22 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Monte Morris</t>
+          <t>James Michael McAdoo</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F434" t="inlineStr">
@@ -28569,7 +28569,7 @@
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -28579,17 +28579,17 @@
       </c>
       <c r="K434" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>42.2</t>
         </is>
       </c>
       <c r="M434" t="inlineStr">
         <is>
-          <t>-9.6</t>
+          <t>2.3</t>
         </is>
       </c>
     </row>
@@ -29444,17 +29444,17 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Xavier Silas</t>
+          <t>Sean Kilpatrick</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
@@ -29464,12 +29464,12 @@
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>43</t>
         </is>
       </c>
       <c r="G448" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>43</t>
         </is>
       </c>
       <c r="H448" t="inlineStr">
@@ -29479,7 +29479,7 @@
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
@@ -29489,17 +29489,17 @@
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>51.7</t>
         </is>
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>42.6</t>
+          <t>43.7</t>
         </is>
       </c>
       <c r="M448" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>8.0</t>
         </is>
       </c>
     </row>
@@ -29509,12 +29509,12 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Brice Johnson</t>
+          <t>RJ Hunter</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
@@ -29524,17 +29524,17 @@
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G449" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H449" t="inlineStr">
@@ -29544,7 +29544,7 @@
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
@@ -29554,17 +29554,17 @@
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>39.6</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>44.5</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="M449" t="inlineStr">
         <is>
-          <t>-4.9</t>
+          <t>-17.9</t>
         </is>
       </c>
     </row>
@@ -29574,22 +29574,22 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Devin Robinson</t>
+          <t>Xavier Silas</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F450" t="inlineStr">
@@ -29609,7 +29609,7 @@
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
@@ -29619,17 +29619,17 @@
       </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>40.8</t>
+          <t>42.6</t>
         </is>
       </c>
       <c r="M450" t="inlineStr">
         <is>
-          <t>-15.8</t>
+          <t>7.4</t>
         </is>
       </c>
     </row>
@@ -29639,12 +29639,12 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>RJ Hunter</t>
+          <t>Brice Johnson</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
@@ -29654,17 +29654,17 @@
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G451" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H451" t="inlineStr">
@@ -29674,7 +29674,7 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
@@ -29684,17 +29684,17 @@
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>39.6</t>
         </is>
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>44.5</t>
         </is>
       </c>
       <c r="M451" t="inlineStr">
         <is>
-          <t>-17.9</t>
+          <t>-4.9</t>
         </is>
       </c>
     </row>
@@ -29769,32 +29769,32 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Jonathan Gibson</t>
+          <t>Devin Robinson</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G453" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H453" t="inlineStr">
@@ -29804,7 +29804,7 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
@@ -29814,17 +29814,17 @@
       </c>
       <c r="K453" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>37.0</t>
+          <t>40.8</t>
         </is>
       </c>
       <c r="M453" t="inlineStr">
         <is>
-          <t>-3.6</t>
+          <t>-15.8</t>
         </is>
       </c>
     </row>
@@ -29834,22 +29834,22 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Jacob Wiley</t>
+          <t>Jonathan Gibson</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F454" t="inlineStr">
@@ -29869,7 +29869,7 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
@@ -29879,17 +29879,17 @@
       </c>
       <c r="K454" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>44.6</t>
+          <t>37.0</t>
         </is>
       </c>
       <c r="M454" t="inlineStr">
         <is>
-          <t>-19.6</t>
+          <t>-3.6</t>
         </is>
       </c>
     </row>
@@ -29899,32 +29899,32 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Sean Kilpatrick</t>
+          <t>Jacob Wiley</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G455" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H455" t="inlineStr">
@@ -29934,7 +29934,7 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -29944,17 +29944,17 @@
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>51.7</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>43.7</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="M455" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>-19.6</t>
         </is>
       </c>
     </row>
@@ -31654,32 +31654,32 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Matt Costello</t>
+          <t>Malik Beasley</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>43</t>
         </is>
       </c>
       <c r="G482" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>43</t>
         </is>
       </c>
       <c r="H482" t="inlineStr">
@@ -31689,7 +31689,7 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
@@ -31699,17 +31699,17 @@
       </c>
       <c r="K482" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>44.9</t>
         </is>
       </c>
       <c r="M482" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>-0.1</t>
         </is>
       </c>
     </row>
@@ -31719,32 +31719,32 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Malik Beasley</t>
+          <t>Matt Costello</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F483" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G483" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H483" t="inlineStr">
@@ -31754,7 +31754,7 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
@@ -31764,17 +31764,17 @@
       </c>
       <c r="K483" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>44.9</t>
+          <t>48.6</t>
         </is>
       </c>
       <c r="M483" t="inlineStr">
         <is>
-          <t>-0.1</t>
+          <t>1.4</t>
         </is>
       </c>
     </row>
@@ -32174,7 +32174,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Walt Lemon Jr.</t>
+          <t>Josh Smith</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -32184,22 +32184,22 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G490" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H490" t="inlineStr">
@@ -32209,7 +32209,7 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
@@ -32219,17 +32219,17 @@
       </c>
       <c r="K490" t="inlineStr">
         <is>
-          <t>41.7</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>42.6</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="M490" t="inlineStr">
         <is>
-          <t>-0.9</t>
+          <t>0.9</t>
         </is>
       </c>
     </row>
@@ -32239,32 +32239,32 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Jeremy Evans</t>
+          <t>Walt Lemon Jr.</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G491" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H491" t="inlineStr">
@@ -32274,7 +32274,7 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
@@ -32284,17 +32284,17 @@
       </c>
       <c r="K491" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>41.7</t>
         </is>
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>34.1</t>
+          <t>42.6</t>
         </is>
       </c>
       <c r="M491" t="inlineStr">
         <is>
-          <t>-0.7</t>
+          <t>-0.9</t>
         </is>
       </c>
     </row>
@@ -32304,17 +32304,17 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Jameel Warney</t>
+          <t>Jeremy Evans</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
@@ -32324,12 +32324,12 @@
       </c>
       <c r="F492" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G492" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H492" t="inlineStr">
@@ -32339,7 +32339,7 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
@@ -32349,17 +32349,17 @@
       </c>
       <c r="K492" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>43.7</t>
+          <t>34.1</t>
         </is>
       </c>
       <c r="M492" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>-0.7</t>
         </is>
       </c>
     </row>
@@ -32369,17 +32369,17 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Adreian Payne</t>
+          <t>Jameel Warney</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
@@ -32389,12 +32389,12 @@
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G493" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H493" t="inlineStr">
@@ -32404,7 +32404,7 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">
@@ -32414,17 +32414,17 @@
       </c>
       <c r="K493" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>47.7</t>
+          <t>43.7</t>
         </is>
       </c>
       <c r="M493" t="inlineStr">
         <is>
-          <t>19.0</t>
+          <t>0.7</t>
         </is>
       </c>
     </row>
@@ -32434,32 +32434,32 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Derrick Walton Jr.</t>
+          <t>Adreian Payne</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F494" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G494" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H494" t="inlineStr">
@@ -32469,7 +32469,7 @@
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
@@ -32479,17 +32479,17 @@
       </c>
       <c r="K494" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>44.5</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="M494" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>19.0</t>
         </is>
       </c>
     </row>
@@ -32499,32 +32499,32 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Josh Smith</t>
+          <t>Derrick Walton Jr.</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F495" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G495" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H495" t="inlineStr">
@@ -32534,7 +32534,7 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
@@ -32544,17 +32544,17 @@
       </c>
       <c r="K495" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="L495" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>44.5</t>
         </is>
       </c>
       <c r="M495" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>2.2</t>
         </is>
       </c>
     </row>
@@ -32629,22 +32629,22 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>D.J. Wilson</t>
+          <t>Demetrius Jackson</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F497" t="inlineStr">
@@ -32664,7 +32664,7 @@
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
@@ -32674,7 +32674,7 @@
       </c>
       <c r="K497" t="inlineStr">
         <is>
-          <t>59.4</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L497" t="inlineStr">
@@ -32684,7 +32684,7 @@
       </c>
       <c r="M497" t="inlineStr">
         <is>
-          <t>14.1</t>
+          <t>4.7</t>
         </is>
       </c>
     </row>
@@ -32694,22 +32694,22 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Demetrius Jackson</t>
+          <t>D.J. Wilson</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F498" t="inlineStr">
@@ -32729,7 +32729,7 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">
@@ -32739,7 +32739,7 @@
       </c>
       <c r="K498" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>59.4</t>
         </is>
       </c>
       <c r="L498" t="inlineStr">
@@ -32749,7 +32749,7 @@
       </c>
       <c r="M498" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>14.1</t>
         </is>
       </c>
     </row>
@@ -33084,32 +33084,32 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Bobby Brown</t>
+          <t>Georges Niang</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E504" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F504" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G504" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H504" t="inlineStr">
@@ -33119,7 +33119,7 @@
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J504" t="inlineStr">
@@ -33129,17 +33129,17 @@
       </c>
       <c r="K504" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>40.5</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="M504" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>15.3</t>
         </is>
       </c>
     </row>
@@ -33149,32 +33149,32 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Georges Niang</t>
+          <t>Bobby Brown</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F505" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G505" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H505" t="inlineStr">
@@ -33184,7 +33184,7 @@
       </c>
       <c r="I505" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J505" t="inlineStr">
@@ -33194,17 +33194,17 @@
       </c>
       <c r="K505" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>48.6</t>
         </is>
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>40.5</t>
         </is>
       </c>
       <c r="M505" t="inlineStr">
         <is>
-          <t>15.3</t>
+          <t>8.1</t>
         </is>
       </c>
     </row>
@@ -33344,22 +33344,22 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Alfonzo McKinnie</t>
+          <t>Jeff Withey</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F508" t="inlineStr">
@@ -33394,12 +33394,12 @@
       </c>
       <c r="L508" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>51.9</t>
         </is>
       </c>
       <c r="M508" t="inlineStr">
         <is>
-          <t>-8.9</t>
+          <t>-18.6</t>
         </is>
       </c>
     </row>
@@ -33409,22 +33409,22 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Jeff Withey</t>
+          <t>Alfonzo McKinnie</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E509" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F509" t="inlineStr">
@@ -33459,12 +33459,12 @@
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>51.9</t>
+          <t>42.2</t>
         </is>
       </c>
       <c r="M509" t="inlineStr">
         <is>
-          <t>-18.6</t>
+          <t>-8.9</t>
         </is>
       </c>
     </row>
@@ -33604,17 +33604,17 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Tim Quarterman</t>
+          <t>David Stockton</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E512" t="inlineStr">
@@ -33624,12 +33624,12 @@
       </c>
       <c r="F512" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G512" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H512" t="inlineStr">
@@ -33654,12 +33654,12 @@
       </c>
       <c r="L512" t="inlineStr">
         <is>
-          <t>43.2</t>
+          <t>43.6</t>
         </is>
       </c>
       <c r="M512" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t>6.4</t>
         </is>
       </c>
     </row>
@@ -33669,32 +33669,32 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Alex Poythress</t>
+          <t>Kendrick Perkins</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E513" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F513" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G513" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H513" t="inlineStr">
@@ -33704,7 +33704,7 @@
       </c>
       <c r="I513" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J513" t="inlineStr">
@@ -33714,17 +33714,17 @@
       </c>
       <c r="K513" t="inlineStr">
         <is>
-          <t>31.6</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="M513" t="inlineStr">
         <is>
-          <t>-11.9</t>
+          <t>4.2</t>
         </is>
       </c>
     </row>
@@ -33799,17 +33799,17 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Tyler Lydon</t>
+          <t>Alex Poythress</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E515" t="inlineStr">
@@ -33819,12 +33819,12 @@
       </c>
       <c r="F515" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G515" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H515" t="inlineStr">
@@ -33834,7 +33834,7 @@
       </c>
       <c r="I515" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="J515" t="inlineStr">
@@ -33844,17 +33844,17 @@
       </c>
       <c r="K515" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>31.6</t>
         </is>
       </c>
       <c r="L515" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="M515" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>-11.9</t>
         </is>
       </c>
     </row>
@@ -33864,32 +33864,32 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Kendrick Perkins</t>
+          <t>Tim Quarterman</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E516" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F516" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G516" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H516" t="inlineStr">
@@ -33914,12 +33914,12 @@
       </c>
       <c r="L516" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>43.2</t>
         </is>
       </c>
       <c r="M516" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>6.9</t>
         </is>
       </c>
     </row>
@@ -33929,17 +33929,17 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>David Stockton</t>
+          <t>Scotty Hopson</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E517" t="inlineStr">
@@ -33949,12 +33949,12 @@
       </c>
       <c r="F517" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G517" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H517" t="inlineStr">
@@ -33979,12 +33979,12 @@
       </c>
       <c r="L517" t="inlineStr">
         <is>
-          <t>43.6</t>
+          <t>55.0</t>
         </is>
       </c>
       <c r="M517" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>-5.0</t>
         </is>
       </c>
     </row>
@@ -33994,17 +33994,17 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Scotty Hopson</t>
+          <t>Luis Montero</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E518" t="inlineStr">
@@ -34029,7 +34029,7 @@
       </c>
       <c r="I518" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J518" t="inlineStr">
@@ -34039,17 +34039,17 @@
       </c>
       <c r="K518" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L518" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>35.7</t>
         </is>
       </c>
       <c r="M518" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>-35.7</t>
         </is>
       </c>
     </row>
@@ -34059,22 +34059,22 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Luis Montero</t>
+          <t>Tyler Lydon</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E519" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F519" t="inlineStr">
@@ -34094,7 +34094,7 @@
       </c>
       <c r="I519" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J519" t="inlineStr">
@@ -34104,17 +34104,17 @@
       </c>
       <c r="K519" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L519" t="inlineStr">
         <is>
-          <t>35.7</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="M519" t="inlineStr">
         <is>
-          <t>-35.7</t>
+          <t>7.0</t>
         </is>
       </c>
     </row>
@@ -34449,7 +34449,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>P.J. Dozier</t>
+          <t>Daniel Hamilton</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -34459,22 +34459,22 @@
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F525" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G525" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H525" t="inlineStr">
@@ -34484,7 +34484,7 @@
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J525" t="inlineStr">
@@ -34494,17 +34494,17 @@
       </c>
       <c r="K525" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>41.6</t>
         </is>
       </c>
       <c r="M525" t="inlineStr">
         <is>
-          <t>-17.1</t>
+          <t>2.8</t>
         </is>
       </c>
     </row>
@@ -34514,32 +34514,32 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Daniel Hamilton</t>
+          <t>Josh McRoberts</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E526" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F526" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G526" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H526" t="inlineStr">
@@ -34549,7 +34549,7 @@
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J526" t="inlineStr">
@@ -34559,17 +34559,17 @@
       </c>
       <c r="K526" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>41.6</t>
+          <t>39.4</t>
         </is>
       </c>
       <c r="M526" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>27.2</t>
         </is>
       </c>
     </row>
@@ -34579,17 +34579,17 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Ben Moore</t>
+          <t>Nicolas Brussino</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E527" t="inlineStr">
@@ -34614,7 +34614,7 @@
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J527" t="inlineStr">
@@ -34624,17 +34624,17 @@
       </c>
       <c r="K527" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L527" t="inlineStr">
         <is>
-          <t>39.7</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="M527" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>-17.0</t>
         </is>
       </c>
     </row>
@@ -34644,17 +34644,17 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Nicolas Brussino</t>
+          <t>Ben Moore</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E528" t="inlineStr">
@@ -34679,7 +34679,7 @@
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J528" t="inlineStr">
@@ -34689,17 +34689,17 @@
       </c>
       <c r="K528" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L528" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>39.7</t>
         </is>
       </c>
       <c r="M528" t="inlineStr">
         <is>
-          <t>-17.0</t>
+          <t>27.0</t>
         </is>
       </c>
     </row>
@@ -34709,22 +34709,22 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Josh McRoberts</t>
+          <t>P.J. Dozier</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E529" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F529" t="inlineStr">
@@ -34744,7 +34744,7 @@
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J529" t="inlineStr">
@@ -34754,17 +34754,17 @@
       </c>
       <c r="K529" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L529" t="inlineStr">
         <is>
-          <t>39.4</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="M529" t="inlineStr">
         <is>
-          <t>27.2</t>
+          <t>-17.1</t>
         </is>
       </c>
     </row>
@@ -34839,32 +34839,32 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Erik McCree</t>
+          <t>Reggie Hearn</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F531" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G531" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H531" t="inlineStr">
@@ -34889,12 +34889,12 @@
       </c>
       <c r="L531" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>40.1</t>
         </is>
       </c>
       <c r="M531" t="inlineStr">
         <is>
-          <t>-50.4</t>
+          <t>-40.1</t>
         </is>
       </c>
     </row>
@@ -34904,17 +34904,17 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Matt Williams Jr.</t>
+          <t>Nate Wolters</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E532" t="inlineStr">
@@ -34939,7 +34939,7 @@
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J532" t="inlineStr">
@@ -34949,17 +34949,17 @@
       </c>
       <c r="K532" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>42.7</t>
         </is>
       </c>
       <c r="M532" t="inlineStr">
         <is>
-          <t>-44.7</t>
+          <t>7.3</t>
         </is>
       </c>
     </row>
@@ -34969,12 +34969,12 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Nate Wolters</t>
+          <t>Derrick Williams</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D533" t="inlineStr">
@@ -34984,17 +34984,17 @@
       </c>
       <c r="E533" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F533" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G533" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H533" t="inlineStr">
@@ -35004,7 +35004,7 @@
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J533" t="inlineStr">
@@ -35014,17 +35014,17 @@
       </c>
       <c r="K533" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L533" t="inlineStr">
         <is>
-          <t>42.7</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="M533" t="inlineStr">
         <is>
-          <t>7.3</t>
+          <t>-50.8</t>
         </is>
       </c>
     </row>
@@ -35034,17 +35034,17 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Gordon Hayward</t>
+          <t>Erik McCree</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E534" t="inlineStr">
@@ -35069,27 +35069,27 @@
       </c>
       <c r="I534" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J534" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J534" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K534" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="M534" t="inlineStr">
         <is>
-          <t>54.7</t>
+          <t>-50.4</t>
         </is>
       </c>
     </row>
@@ -35099,17 +35099,17 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Edmond Sumner</t>
+          <t>Matt Williams Jr.</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E535" t="inlineStr">
@@ -35119,12 +35119,12 @@
       </c>
       <c r="F535" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G535" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H535" t="inlineStr">
@@ -35134,27 +35134,27 @@
       </c>
       <c r="I535" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J535" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J535" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K535" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>36.5</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="M535" t="inlineStr">
         <is>
-          <t>63.5</t>
+          <t>-44.7</t>
         </is>
       </c>
     </row>
@@ -35164,17 +35164,17 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Reggie Hearn</t>
+          <t>Edmond Sumner</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E536" t="inlineStr">
@@ -35184,12 +35184,12 @@
       </c>
       <c r="F536" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G536" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H536" t="inlineStr">
@@ -35199,7 +35199,7 @@
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J536" t="inlineStr">
@@ -35209,17 +35209,17 @@
       </c>
       <c r="K536" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>40.1</t>
+          <t>36.5</t>
         </is>
       </c>
       <c r="M536" t="inlineStr">
         <is>
-          <t>-40.1</t>
+          <t>63.5</t>
         </is>
       </c>
     </row>
@@ -35229,17 +35229,17 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Derrick Williams</t>
+          <t>Gordon Hayward</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E537" t="inlineStr">
@@ -35264,7 +35264,7 @@
       </c>
       <c r="I537" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J537" t="inlineStr">
@@ -35274,17 +35274,17 @@
       </c>
       <c r="K537" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="M537" t="inlineStr">
         <is>
-          <t>-50.8</t>
+          <t>54.7</t>
         </is>
       </c>
     </row>
